--- a/medicine/Sexualité et sexologie/Partialisme/Partialisme.xlsx
+++ b/medicine/Sexualité et sexologie/Partialisme/Partialisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le partialisme est, dans le domaine médical,  une excitation sexuelle dont une seule partie spécifique du  corps humain est intéressante pour l'individu[1]. 
-Le partialisme était catégorisé comme paraphilie dans le "Manuel diagnostique et statistique des troubles mentaux" (DSM-IV-TR) de l'Association américaine de psychiatrie[2], mais a été tout simplement catégorisé comme Fétichisme sexuel par le DSM-5[3]. 
-Les individus atteints de partialisme décrivent l'anatomie en tant qu'intérêt fondamental dans leur sexualité[4].
-Le partialisme, comme pour le fétichisme du pied, est une pratique qui concerne aussi bien les hétérosexuels que les homosexuels [5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le partialisme est, dans le domaine médical,  une excitation sexuelle dont une seule partie spécifique du  corps humain est intéressante pour l'individu. 
+Le partialisme était catégorisé comme paraphilie dans le "Manuel diagnostique et statistique des troubles mentaux" (DSM-IV-TR) de l'Association américaine de psychiatrie, mais a été tout simplement catégorisé comme Fétichisme sexuel par le DSM-5. 
+Les individus atteints de partialisme décrivent l'anatomie en tant qu'intérêt fondamental dans leur sexualité.
+Le partialisme, comme pour le fétichisme du pied, est une pratique qui concerne aussi bien les hétérosexuels que les homosexuels ,.
 </t>
         </is>
       </c>
